--- a/testDataFiles/TestApis.xlsx
+++ b/testDataFiles/TestApis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="GetApi" sheetId="2" r:id="rId1"/>
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
-  <si>
-    <t>Parameter</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>https://reqres.in/</t>
   </si>
@@ -72,13 +69,28 @@
   </si>
   <si>
     <t>{"token":"QpwL5tke4Pnpja7X4"}</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>eve.holt@reqres.in</t>
+  </si>
+  <si>
+    <t>cityslicka</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,14 +108,29 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -137,31 +164,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -470,136 +494,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="66" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="35" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27" style="3" customWidth="1"/>
+    <col min="5" max="5" width="66" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>404</v>
       </c>
     </row>
@@ -614,60 +640,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="12.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="12.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="44.109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="H2" s="3">
         <v>200</v>
       </c>
     </row>

--- a/testDataFiles/TestApis.xlsx
+++ b/testDataFiles/TestApis.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="GetApi" sheetId="2" r:id="rId1"/>
-    <sheet name="PostApi" sheetId="3" r:id="rId2"/>
+    <sheet name="GetApi" r:id="rId1" sheetId="2"/>
+    <sheet name="PostApi" r:id="rId2" sheetId="3"/>
+    <sheet name="PutApi" r:id="rId3" sheetId="6"/>
+    <sheet name="DeleteApi" r:id="rId4" sheetId="4"/>
+    <sheet name="AllApi" r:id="rId5" sheetId="5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
-  <si>
-    <t>https://reqres.in/</t>
-  </si>
-  <si>
-    <t>/api/users/2</t>
-  </si>
-  <si>
-    <t>/api/unknown/2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="44">
   <si>
     <t>API Url</t>
   </si>
@@ -32,9 +26,6 @@
     <t>Response Data</t>
   </si>
   <si>
-    <t>/api/users/23</t>
-  </si>
-  <si>
     <t>{}</t>
   </si>
   <si>
@@ -44,15 +35,9 @@
     <t>{"data":{"id":2,"name":"fuchsia rose","year":2001,"color":"#C74375","pantone_value":"17-2031"}}</t>
   </si>
   <si>
-    <t>/api/users?delay=3</t>
-  </si>
-  <si>
     <t>{"page":1,"per_page":6,"total":12,"total_pages":2,"data":[{"id":1,"email":"george.bluth@reqres.in","first_name":"George","last_name":"Bluth","avatar":"https://s3.amazonaws.com/uifaces/faces/twitter/calebogden/128.jpg"},</t>
   </si>
   <si>
-    <t>/api/unknown/23</t>
-  </si>
-  <si>
     <t>S.No</t>
   </si>
   <si>
@@ -65,31 +50,113 @@
     <t>Response Code</t>
   </si>
   <si>
-    <t>/api/login</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>eve.holt@reqres.in</t>
+  </si>
+  <si>
+    <t>cityslicka</t>
+  </si>
+  <si>
+    <t>https://reqres.in/api/</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>morpheus</t>
+  </si>
+  <si>
+    <t>leader</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>pistol</t>
+  </si>
+  <si>
+    <t>sydney@fife</t>
+  </si>
+  <si>
+    <t>peter@klaven</t>
+  </si>
+  <si>
+    <t>{"error":"Missing password"}</t>
   </si>
   <si>
     <t>{"token":"QpwL5tke4Pnpja7X4"}</t>
   </si>
   <si>
+    <t>{"id":4,"token":"QpwL5tke4Pnpja7X4"}</t>
+  </si>
+  <si>
+    <t>{"name":"morpheus","job":"leader","id":601","createdAt":"2020-03-09T06:35:25.133Z"}</t>
+  </si>
+  <si>
     <t>Page</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>eve.holt@reqres.in</t>
-  </si>
-  <si>
-    <t>cityslicka</t>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>users/</t>
+  </si>
+  <si>
+    <t>unknown/</t>
+  </si>
+  <si>
+    <t>users?delay=</t>
+  </si>
+  <si>
+    <t>https://jsonplaceholder.typicode.com/</t>
+  </si>
+  <si>
+    <t>posts/</t>
+  </si>
+  <si>
+    <t>zion resident</t>
+  </si>
+  <si>
+    <t>{"name":"morpheus","job":"zion resident","updatedAt":"2020-03-09T08:50:11.927Z"}</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,19 +189,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -161,39 +226,48 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="13">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="14" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -210,10 +284,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -248,7 +322,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,7 +357,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,7 +445,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -380,13 +454,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -396,7 +470,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -405,7 +479,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -414,7 +488,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -424,12 +498,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -460,7 +534,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -479,7 +553,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -491,231 +565,753 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="35" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27" style="3" customWidth="1"/>
-    <col min="5" max="5" width="66" style="6" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" style="1" width="8.85546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="1" width="16.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="1" width="23.5703125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="15.42578125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.140625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="2" width="71.7109375" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="1" width="18.7109375" collapsed="false"/>
+    <col min="8" max="16384" style="1" width="8.85546875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row customFormat="1" customHeight="1" ht="21" r="1" s="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="53.25" r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G2" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.75" r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>404</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="37.5" r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="G4" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row customHeight="1" ht="57.75" r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="G6" s="1">
         <v>404</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink r:id="rId3" ref="C4"/>
+    <hyperlink r:id="rId4" ref="C6"/>
+    <hyperlink r:id="rId5" ref="C5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId6" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="1" width="12.5703125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="1" width="24.85546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="15.140625" collapsed="false"/>
+    <col min="5" max="7" customWidth="true" style="1" width="20.7109375" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="1" width="15.140625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="2" width="44.140625" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="1" width="17.140625" collapsed="false"/>
+    <col min="11" max="16384" style="1" width="9.140625" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="20.25" r="1" s="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row ht="31.5" r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1">
+        <v>201</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="1">
+        <v>200</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1">
+        <v>400</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1">
+        <v>200</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1">
+        <v>400</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink r:id="rId3" ref="E3"/>
+    <hyperlink r:id="rId4" ref="C4"/>
+    <hyperlink r:id="rId5" ref="E4"/>
+    <hyperlink r:id="rId6" ref="C5"/>
+    <hyperlink r:id="rId7" ref="E5"/>
+    <hyperlink r:id="rId8" ref="C6"/>
+    <hyperlink r:id="rId9" ref="E6"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId10" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="1" width="12.5703125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="1" width="24.85546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="13.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="11.7109375" collapsed="false"/>
+    <col min="6" max="8" customWidth="true" style="1" width="20.7109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="1" width="15.140625" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="2" width="49.140625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="1" width="17.140625" collapsed="false"/>
+    <col min="12" max="16384" style="1" width="9.140625" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="20.25" r="1" s="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="36" r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C2"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="12.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="44.109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="38.140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="7.28515625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="8" width="18.42578125" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="19.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row customFormat="1" customHeight="1" ht="20.25" r="1" s="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="G1" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="15.5703125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="14.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="8" width="54.28515625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="19.85546875" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="17.25" r="1" s="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="50.25" r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>200</v>
+      </c>
+    </row>
+    <row ht="30" r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>201</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.5" r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink r:id="rId3" ref="C4"/>
+    <hyperlink r:id="rId4" ref="C5"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/testDataFiles/TestApis.xlsx
+++ b/testDataFiles/TestApis.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="GetApi" r:id="rId1" sheetId="2"/>
-    <sheet name="PostApi" r:id="rId2" sheetId="3"/>
-    <sheet name="PutApi" r:id="rId3" sheetId="6"/>
-    <sheet name="DeleteApi" r:id="rId4" sheetId="4"/>
-    <sheet name="AllApi" r:id="rId5" sheetId="5"/>
+    <sheet name="GetApi" sheetId="2" r:id="rId1"/>
+    <sheet name="PostApi" sheetId="3" r:id="rId2"/>
+    <sheet name="PutApi" sheetId="6" r:id="rId3"/>
+    <sheet name="DeleteApi" sheetId="4" r:id="rId4"/>
+    <sheet name="AllApi" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="44">
   <si>
     <t>API Url</t>
   </si>
@@ -156,7 +157,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,48 +226,48 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="14" xfId="0"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -284,10 +284,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -322,7 +322,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,7 +357,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,7 +445,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -454,13 +454,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -470,7 +470,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -479,7 +479,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -488,7 +488,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -498,12 +498,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -534,7 +534,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -553,7 +553,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -565,7 +565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -574,17 +574,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="8.85546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="16.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="23.5703125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="15.42578125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="9.140625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="2" width="71.7109375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="1" width="18.7109375" collapsed="false"/>
-    <col min="8" max="16384" style="1" width="8.85546875" collapsed="false"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="71.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="21" r="1" s="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -607,7 +607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="53.25" r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -630,7 +630,7 @@
         <v>200</v>
       </c>
     </row>
-    <row customHeight="1" ht="18.75" r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -653,7 +653,7 @@
         <v>404</v>
       </c>
     </row>
-    <row customHeight="1" ht="37.5" r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -676,7 +676,7 @@
         <v>200</v>
       </c>
     </row>
-    <row customHeight="1" ht="57.75" r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -724,39 +724,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
-    <hyperlink r:id="rId3" ref="C4"/>
-    <hyperlink r:id="rId4" ref="C6"/>
-    <hyperlink r:id="rId5" ref="C5"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId6" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="12.5703125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="24.85546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="15.140625" collapsed="false"/>
-    <col min="5" max="7" customWidth="true" style="1" width="20.7109375" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="1" width="15.140625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="2" width="44.140625" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="1" width="17.140625" collapsed="false"/>
-    <col min="11" max="16384" style="1" width="9.140625" collapsed="false"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="44.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="20.25" r="1" s="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -791,7 +791,7 @@
         <v>43</v>
       </c>
     </row>
-    <row ht="31.5" r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -820,7 +820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -850,7 +850,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -877,7 +877,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -906,7 +906,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -934,23 +934,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
-    <hyperlink r:id="rId3" ref="E3"/>
-    <hyperlink r:id="rId4" ref="C4"/>
-    <hyperlink r:id="rId5" ref="E4"/>
-    <hyperlink r:id="rId6" ref="C5"/>
-    <hyperlink r:id="rId7" ref="E5"/>
-    <hyperlink r:id="rId8" ref="C6"/>
-    <hyperlink r:id="rId9" ref="E6"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6"/>
+    <hyperlink ref="E5" r:id="rId7"/>
+    <hyperlink ref="C6" r:id="rId8"/>
+    <hyperlink ref="E6" r:id="rId9"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId10" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -959,19 +959,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="12.5703125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="24.85546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="13.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="11.7109375" collapsed="false"/>
-    <col min="6" max="8" customWidth="true" style="1" width="20.7109375" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="1" width="15.140625" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="2" width="49.140625" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="1" width="17.140625" collapsed="false"/>
-    <col min="12" max="16384" style="1" width="9.140625" collapsed="false"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="49.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="20.25" r="1" s="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="36" r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1037,15 +1037,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1054,15 +1054,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="14.85546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="38.140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="7.28515625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="8" width="18.42578125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="19.0" collapsed="false"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="20.25" r="1" s="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -1131,33 +1131,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="15.5703125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="14.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="8" width="54.28515625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="19.85546875" collapsed="false"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="54.28515625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="17.25" r="1" s="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" ht="50.25" r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>200</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>201</v>
       </c>
     </row>
-    <row customHeight="1" ht="28.5" r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1307,11 +1307,104 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
-    <hyperlink r:id="rId3" ref="C4"/>
-    <hyperlink r:id="rId4" ref="C5"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="54.28515625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testDataFiles/TestApis.xlsx
+++ b/testDataFiles/TestApis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GetApi" sheetId="2" r:id="rId1"/>
@@ -12,17 +12,13 @@
     <sheet name="PutApi" sheetId="6" r:id="rId3"/>
     <sheet name="DeleteApi" sheetId="4" r:id="rId4"/>
     <sheet name="AllApi" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="44">
-  <si>
-    <t>API Url</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="45">
   <si>
     <t>Response Data</t>
   </si>
@@ -151,6 +147,12 @@
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Base Url</t>
   </si>
 </sst>
 </file>
@@ -566,157 +568,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="71.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="23.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="71.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>1</v>
-      </c>
       <c r="G1" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1">
         <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1">
         <v>23</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>404</v>
@@ -740,196 +745,196 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="44.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="12.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="1" customWidth="1"/>
+    <col min="5" max="7" width="20.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="44.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>1</v>
-      </c>
       <c r="J1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="1">
         <v>201</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="12"/>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1">
         <v>200</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="12"/>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1">
         <v>400</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" s="1">
         <v>200</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="J6" s="1">
         <v>400</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -951,85 +956,88 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="12.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="49.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="49.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>1</v>
-      </c>
       <c r="K1" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="K2" s="1">
         <v>201</v>
@@ -1046,57 +1054,60 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="38.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="8" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>1</v>
-      </c>
       <c r="G1" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1106,24 +1117,24 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>200</v>
@@ -1141,165 +1152,168 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="54.28515625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="54.33203125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>1</v>
-      </c>
       <c r="L1" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="L4">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L5">
         <v>204</v>
@@ -1314,97 +1328,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="54.28515625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2">
-        <v>201</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/testDataFiles/TestApis.xlsx
+++ b/testDataFiles/TestApis.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView activeTab="4" windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="GetApi" sheetId="2" r:id="rId1"/>
-    <sheet name="PostApi" sheetId="3" r:id="rId2"/>
-    <sheet name="PutApi" sheetId="6" r:id="rId3"/>
-    <sheet name="DeleteApi" sheetId="4" r:id="rId4"/>
-    <sheet name="AllApi" sheetId="5" r:id="rId5"/>
+    <sheet name="GetApi" r:id="rId1" sheetId="2"/>
+    <sheet name="PostApi" r:id="rId2" sheetId="3"/>
+    <sheet name="PutApi" r:id="rId3" sheetId="6"/>
+    <sheet name="DeleteApi" r:id="rId4" sheetId="4"/>
+    <sheet name="AllApi" r:id="rId5" sheetId="5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="46">
   <si>
     <t>Response Data</t>
   </si>
@@ -153,12 +153,16 @@
   </si>
   <si>
     <t>Base Url</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,48 +232,48 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="14" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -286,10 +290,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -324,7 +328,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,7 +363,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,7 +451,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -456,13 +460,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -472,7 +476,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -481,7 +485,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -490,7 +494,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -500,12 +504,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -536,7 +540,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -555,7 +559,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -567,7 +571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -576,17 +580,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="71.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" style="1" width="8.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="23.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="15.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="71.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="18.6640625" collapsed="true"/>
+    <col min="8" max="16384" style="1" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="21" r="1" s="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -612,7 +616,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="53.25" r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -634,8 +638,11 @@
       <c r="G2" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.75" r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -657,8 +664,11 @@
       <c r="G3" s="1">
         <v>404</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="37.5" r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -680,8 +690,11 @@
       <c r="G4" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="57.75" r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -702,6 +715,9 @@
       </c>
       <c r="G5" s="1">
         <v>200</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -726,22 +742,25 @@
       <c r="G6" s="1">
         <v>404</v>
       </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink r:id="rId3" ref="C4"/>
+    <hyperlink r:id="rId4" ref="C6"/>
+    <hyperlink r:id="rId5" ref="C5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId6" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -750,18 +769,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="12.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="1" customWidth="1"/>
-    <col min="5" max="7" width="20.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="44.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" style="1" width="9.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="12.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="24.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="15.109375" collapsed="true"/>
+    <col min="5" max="7" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="15.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="44.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="17.109375" collapsed="true"/>
+    <col min="11" max="16384" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.25" r="1" s="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -796,7 +815,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row ht="31.2" r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -939,23 +958,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="E4" r:id="rId5"/>
-    <hyperlink ref="C5" r:id="rId6"/>
-    <hyperlink ref="E5" r:id="rId7"/>
-    <hyperlink ref="C6" r:id="rId8"/>
-    <hyperlink ref="E6" r:id="rId9"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink r:id="rId3" ref="E3"/>
+    <hyperlink r:id="rId4" ref="C4"/>
+    <hyperlink r:id="rId5" ref="E4"/>
+    <hyperlink r:id="rId6" ref="C5"/>
+    <hyperlink r:id="rId7" ref="E5"/>
+    <hyperlink r:id="rId8" ref="C6"/>
+    <hyperlink r:id="rId9" ref="E6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId10" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -964,19 +983,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="12.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="20.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="49.109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" style="1" width="9.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="12.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="24.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="11.6640625" collapsed="true"/>
+    <col min="6" max="8" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="15.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="49.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="17.109375" collapsed="true"/>
+    <col min="12" max="16384" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.25" r="1" s="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1033,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="36" r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1045,15 +1064,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="C2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1062,15 +1081,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="38.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="38.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="7.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="8" width="18.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.25" r="1" s="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -1096,7 +1115,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row ht="15" r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1142,16 +1161,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
@@ -1160,15 +1179,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="54.33203125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="8" width="54.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="17.25" r="1" s="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -1209,7 +1228,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="50.25" r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1235,7 +1254,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1264,7 +1283,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="28.5" r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1321,11 +1340,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink r:id="rId3" ref="C4"/>
+    <hyperlink r:id="rId4" ref="C5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>